--- a/biology/Histoire de la zoologie et de la botanique/Morin_de_Toulon/Morin_de_Toulon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Morin_de_Toulon/Morin_de_Toulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morin de Toulon, est un chimiste et naturaliste français, membre de l'Académie royale des sciences, né à Toulon, et mort en 1707.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On a peu d'informations sur ce savant. Il fit partie de l'Académie royale des sciences en 1693. Après la réforme de l'Académie royale des sciences, le 26 janvier 1699, il est nommé second membre associé botaniste le 28 janvier 1699.
 Il s'est surtout intéressé à la minéralogie, a fait des recherches sur les imitations européennes de porcelaines chinoises et promettait plusieurs travaux chimiques quand il est mort, en 1707.
@@ -544,7 +558,9 @@
           <t>Mémoires de l'Académie royale des sciences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Observations sur une côte fossile, trouvée dans une carrière de Montmartre, en 1694, dans Mémoires de l'Académie Royale des Sciences depuis 1686 jusqu'à son renouvellement en 1699, tome 2, p. 208 (lire en ligne)
 Mine de fer malléable, en 1693, dans Mémoires de l'Académie Royale des Sciences depuis 1686 jusqu'à son renouvellement en 1699, tome 2, p. 183 (lire en ligne) ;
